--- a/biology/Botanique/Jardin_botanique_d'Iturraran/Jardin_botanique_d'Iturraran.xlsx
+++ b/biology/Botanique/Jardin_botanique_d'Iturraran/Jardin_botanique_d'Iturraran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_d%27Iturraran</t>
+          <t>Jardin_botanique_d'Iturraran</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique d'Iturraran est situé au cœur du Parc naturel de Pagoeta près de Saint Sébastien (Espagne).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_d%27Iturraran</t>
+          <t>Jardin_botanique_d'Iturraran</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers spécimens de plantes ont été plantés en 1986 sur 10 hectares offrant plus de 4 000 plantes différentes en provenance du monde entier notamment des collections de berberis, acer, magnolia.
  Portail de la botanique   Portail du Pays basque   Portail des musées   Portail de la com. autonome du Pays basque                  </t>
